--- a/reportmap.xlsx
+++ b/reportmap.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="214">
   <si>
     <t>30fa6bcc-608e-40cb-b22a-b202967ff2a6</t>
   </si>
@@ -199,6 +199,474 @@
   </si>
   <si>
     <t>г. Мурманск</t>
+  </si>
+  <si>
+    <t>13b2065c-54d6-4c3d-a26e-c4694b1c314f</t>
+  </si>
+  <si>
+    <t>жилрайон Росляково</t>
+  </si>
+  <si>
+    <t>c5fe1817-5163-4e3b-b06a-36d322c6bf57</t>
+  </si>
+  <si>
+    <t>Оленегорск</t>
+  </si>
+  <si>
+    <t>г. Оленегорск</t>
+  </si>
+  <si>
+    <t>d9553f4e-bbf6-4cc2-8f82-523a56265e56</t>
+  </si>
+  <si>
+    <t>1c727518-c96a-4f34-9ae6-fd510da3be04</t>
+  </si>
+  <si>
+    <t>г. Оленегорск-1</t>
+  </si>
+  <si>
+    <t>defed7b3-d1f0-4dbb-baa8-03bdaffa2b18</t>
+  </si>
+  <si>
+    <t>1c727518-c96a-4f34-9ae6-fd510da3be05</t>
+  </si>
+  <si>
+    <t>г. Оленегорск-2</t>
+  </si>
+  <si>
+    <t>2a7cfc9c-c2fb-40bf-90c9-ac003be4b8c5</t>
+  </si>
+  <si>
+    <t>жд. ст. Лапландия</t>
+  </si>
+  <si>
+    <t>eb849f04-2b69-47b9-9e50-53b72998b34b</t>
+  </si>
+  <si>
+    <t>defed7b3-d1f0-4dbb-baa8-03bdaffa2b19</t>
+  </si>
+  <si>
+    <t>нп Высокий</t>
+  </si>
+  <si>
+    <t>d70b2917-8cea-4555-a9fe-6d2c72d8d9cc</t>
+  </si>
+  <si>
+    <t>Полярные Зори</t>
+  </si>
+  <si>
+    <t>г. Полярные Зори</t>
+  </si>
+  <si>
+    <t>7a22fe23-ee33-400f-9edf-93363df5468b</t>
+  </si>
+  <si>
+    <t>нп Африканда</t>
+  </si>
+  <si>
+    <t>b04bec8c-8d21-4b96-8ec1-7412bb50914e</t>
+  </si>
+  <si>
+    <t>нп Зашеек</t>
+  </si>
+  <si>
+    <t>b77147ce-b55e-4019-9aca-ed3872b9fbb0</t>
+  </si>
+  <si>
+    <t>ЗАТО Александровск</t>
+  </si>
+  <si>
+    <t>г. Гаджиево</t>
+  </si>
+  <si>
+    <t>22e4a0a6-68a6-47bc-a08c-11610ec6231a</t>
+  </si>
+  <si>
+    <t>г. Снежногорск</t>
+  </si>
+  <si>
+    <t>a4ae6202-6ec6-4bc6-abc5-4ecd6ca96d53</t>
+  </si>
+  <si>
+    <t>г. Полярный</t>
+  </si>
+  <si>
+    <t>584f7c5c-f39a-47da-83d7-4ad5ed2c0d4b</t>
+  </si>
+  <si>
+    <t>нп Оленья Губа</t>
+  </si>
+  <si>
+    <t>81a88076-04de-46c9-940a-3cb300e70e5b</t>
+  </si>
+  <si>
+    <t>ЗАТО город Заозерск</t>
+  </si>
+  <si>
+    <t>г. Заозерск</t>
+  </si>
+  <si>
+    <t>0a358e8a-d3c4-45e5-b9fc-126092afd6f5</t>
+  </si>
+  <si>
+    <t>ЗАТО город Островной</t>
+  </si>
+  <si>
+    <t>г. Островной</t>
+  </si>
+  <si>
+    <t>53e652bc-dd1b-44e1-9ab2-401b04cf3ceb</t>
+  </si>
+  <si>
+    <t>ЗАТО город Североморск</t>
+  </si>
+  <si>
+    <t>г. Североморск</t>
+  </si>
+  <si>
+    <t>5769f0ab-328b-4671-9fb0-859acf45242b</t>
+  </si>
+  <si>
+    <t>нп Североморск-3</t>
+  </si>
+  <si>
+    <t>12216012-4509-437f-9c8b-72d9c57c0f2e</t>
+  </si>
+  <si>
+    <t>нп Щукозеро</t>
+  </si>
+  <si>
+    <t>518107ac-ed36-4fe5-8af6-32540f4a1c59</t>
+  </si>
+  <si>
+    <t>пгт Сафоново</t>
+  </si>
+  <si>
+    <t>1b852afd-3215-4043-943e-75f0fcf59d45</t>
+  </si>
+  <si>
+    <t>ЗАТО поселок Видяево</t>
+  </si>
+  <si>
+    <t>п. Видяево</t>
+  </si>
+  <si>
+    <t>01cc7377-a3a7-4793-9c77-52e3ef66a6ff</t>
+  </si>
+  <si>
+    <t>6c281de9-1613-46b1-b48c-344bf1a45a9c</t>
+  </si>
+  <si>
+    <t>Ковдорский район</t>
+  </si>
+  <si>
+    <t>г. Ковдор</t>
+  </si>
+  <si>
+    <t>04803422-4d32-4e35-b978-641a4311d65a</t>
+  </si>
+  <si>
+    <t>нп Ёнский</t>
+  </si>
+  <si>
+    <t>4d0d5ad5-fce1-4ec3-a705-9df9aa5b4d1a</t>
+  </si>
+  <si>
+    <t>нп Куропта</t>
+  </si>
+  <si>
+    <t>c85089e9-d2a5-496c-a38f-1302206f42ba</t>
+  </si>
+  <si>
+    <t>нп Лейпи</t>
+  </si>
+  <si>
+    <t>d4c42426-db64-4f6c-8ddb-957c0e512aaf</t>
+  </si>
+  <si>
+    <t>нп Риколатва</t>
+  </si>
+  <si>
+    <t>92231a00-94aa-435d-a28c-6239be573634</t>
+  </si>
+  <si>
+    <t>с. Ёна</t>
+  </si>
+  <si>
+    <t>9cb9b8bb-b516-4eb7-9d6a-3596c7bedd64</t>
+  </si>
+  <si>
+    <t>5b22eaf7-3bab-437c-938f-5af0f45502db</t>
+  </si>
+  <si>
+    <t>Кольский район</t>
+  </si>
+  <si>
+    <t>пгт Верхнетуломский</t>
+  </si>
+  <si>
+    <t>476cf448-a008-4f90-a141-639dda24be5e</t>
+  </si>
+  <si>
+    <t>Кильдинстрой</t>
+  </si>
+  <si>
+    <t>жд. ст. Магнетиты</t>
+  </si>
+  <si>
+    <t>c6043081-5f82-49a6-a4c3-fcbc61668d80</t>
+  </si>
+  <si>
+    <t>нп Зверосовхоз</t>
+  </si>
+  <si>
+    <t>432de3b6-98df-4287-a9ae-5d5540e6db7f</t>
+  </si>
+  <si>
+    <t>нп Шонгуй</t>
+  </si>
+  <si>
+    <t>fdf33d62-f6a4-4e15-9e1e-220b353f415f</t>
+  </si>
+  <si>
+    <t>пгт Кильдинстрой</t>
+  </si>
+  <si>
+    <t>866ace16-21ff-49c4-af8d-b74ef0e80208</t>
+  </si>
+  <si>
+    <t>г. Кола</t>
+  </si>
+  <si>
+    <t>c5412d01-3ca0-4767-a3df-4570650a592a</t>
+  </si>
+  <si>
+    <t>Междуречье</t>
+  </si>
+  <si>
+    <t>нп Килпъявр</t>
+  </si>
+  <si>
+    <t>0ac2cf53-b0ad-4fc9-aef7-9c149c12abf6</t>
+  </si>
+  <si>
+    <t>нп Междуречье</t>
+  </si>
+  <si>
+    <t>5feb9ddd-8e0d-4a54-9ba9-f7384c3bb8f8</t>
+  </si>
+  <si>
+    <t>нп Мишуково</t>
+  </si>
+  <si>
+    <t>b1915491-f014-4faa-b7d7-67dc36ebaf6f</t>
+  </si>
+  <si>
+    <t>с. Минькино</t>
+  </si>
+  <si>
+    <t>f739aaae-4ed9-4f0f-b251-4797e2683f0d</t>
+  </si>
+  <si>
+    <t>Молочный</t>
+  </si>
+  <si>
+    <t>жд. ст. Выходной</t>
+  </si>
+  <si>
+    <t>ebccc4af-78f7-479e-90b8-2b2b4d2a765c</t>
+  </si>
+  <si>
+    <t>пгт Молочный</t>
+  </si>
+  <si>
+    <t>07817e97-b467-4f98-9b6d-9525bed883b9</t>
+  </si>
+  <si>
+    <t>пгт Мурмаши</t>
+  </si>
+  <si>
+    <t>04b23ab8-98e1-4595-b79e-ba5667b4424c</t>
+  </si>
+  <si>
+    <t>Пушной</t>
+  </si>
+  <si>
+    <t>жд. ст. Кица</t>
+  </si>
+  <si>
+    <t>f7919ad9-19f1-45ad-aa00-47e6011a485a</t>
+  </si>
+  <si>
+    <t>нп Мокрая Кица</t>
+  </si>
+  <si>
+    <t>9cdf5806-1739-4d07-bd33-11f70e051a20</t>
+  </si>
+  <si>
+    <t>нп Песчанный</t>
+  </si>
+  <si>
+    <t>3afbe7ce-66a8-4022-9ddc-2516d99c058b</t>
+  </si>
+  <si>
+    <t>нп Пушной</t>
+  </si>
+  <si>
+    <t>f20cd4f8-4203-4ee3-9f91-0aec4716a711</t>
+  </si>
+  <si>
+    <t>с. Териберка</t>
+  </si>
+  <si>
+    <t>f7a75d31-ebd3-436b-bd6a-24aa009d87ec</t>
+  </si>
+  <si>
+    <t>Тулома</t>
+  </si>
+  <si>
+    <t>жд. ст. Пяйве</t>
+  </si>
+  <si>
+    <t>2686188a-cf23-4a7f-9743-6f0c941f6579</t>
+  </si>
+  <si>
+    <t>с. Тулома</t>
+  </si>
+  <si>
+    <t>0c213251-9d52-423b-b7dd-283d301209dd</t>
+  </si>
+  <si>
+    <t>пгт Туманный</t>
+  </si>
+  <si>
+    <t>658c0c9b-4667-4b59-9bba-1ec72d2fe47e</t>
+  </si>
+  <si>
+    <t>с. Ура-Губа</t>
+  </si>
+  <si>
+    <t>bb2d9b4a-5f14-491e-b316-ff53d480f608</t>
+  </si>
+  <si>
+    <t>11c09610-5a94-4e12-b5d3-ffd522a05827</t>
+  </si>
+  <si>
+    <t>Ловозерский район</t>
+  </si>
+  <si>
+    <t>с. Ловозеро</t>
+  </si>
+  <si>
+    <t>3804b72b-953e-47bf-a382-c6241289bf23</t>
+  </si>
+  <si>
+    <t>Ревда</t>
+  </si>
+  <si>
+    <t>пгт Ревда</t>
+  </si>
+  <si>
+    <t>7af321dc-9ad6-4152-bfa6-e5eaaa6f6755</t>
+  </si>
+  <si>
+    <t>11c09610-5a94-4e12-b5d3-ffd522a05828</t>
+  </si>
+  <si>
+    <t>нп Ревда 3-я</t>
+  </si>
+  <si>
+    <t>304cb068-e1d1-4947-944f-07c38cd8db6e</t>
+  </si>
+  <si>
+    <t>e2226235-7ff9-46f7-849c-4d26f08adb12</t>
+  </si>
+  <si>
+    <t>Печенгский район</t>
+  </si>
+  <si>
+    <t>г. Заполярный</t>
+  </si>
+  <si>
+    <t>4c7cdc71-02ec-4c83-9f9c-dacbeb3f8113</t>
+  </si>
+  <si>
+    <t>Корзуново</t>
+  </si>
+  <si>
+    <t>нп Корзуново</t>
+  </si>
+  <si>
+    <t>62b92427-f28f-4cc2-a902-450effd9fd44</t>
+  </si>
+  <si>
+    <t>e2226235-7ff9-46f7-849c-4d26f08adb13</t>
+  </si>
+  <si>
+    <t>нп Луостари</t>
+  </si>
+  <si>
+    <t>9c529509-efb4-4b24-b4e6-9129c4fe7a0e</t>
+  </si>
+  <si>
+    <t>e2226235-7ff9-46f7-849c-4d26f08adb14</t>
+  </si>
+  <si>
+    <t>пгт Никель</t>
+  </si>
+  <si>
+    <t>5ba40a57-2937-43ee-b1aa-d673e1976dff</t>
+  </si>
+  <si>
+    <t>e2226235-7ff9-46f7-849c-4d26f08adb15</t>
+  </si>
+  <si>
+    <t>Печенга</t>
+  </si>
+  <si>
+    <t>нп Линахамари</t>
+  </si>
+  <si>
+    <t>4ff8a0ae-d8f0-4ada-811f-6b0610269582</t>
+  </si>
+  <si>
+    <t>нп Спутник</t>
+  </si>
+  <si>
+    <t>e2226235-7ff9-46f7-849c-4d26f08adb16</t>
+  </si>
+  <si>
+    <t>006d776e-1cc6-4e75-a5cd-557ca961577f</t>
+  </si>
+  <si>
+    <t>e2226235-7ff9-46f7-849c-4d26f08adb17</t>
+  </si>
+  <si>
+    <t>п 19 км</t>
+  </si>
+  <si>
+    <t>формируется по номеру дома в АИС (1068514) необходима связь с ФИАС</t>
+  </si>
+  <si>
+    <t>5aa30128-811b-4947-ac96-28b48f10f981</t>
+  </si>
+  <si>
+    <t>e2226235-7ff9-46f7-849c-4d26f08adb18</t>
+  </si>
+  <si>
+    <t>пгт Печенга</t>
+  </si>
+  <si>
+    <t>4910cf5b-9268-4db5-ae5f-71dfa166f277</t>
+  </si>
+  <si>
+    <t>b184f590-851f-45b8-8726-001f715274ad</t>
+  </si>
+  <si>
+    <t>Терский район</t>
+  </si>
+  <si>
+    <t>пгт Умба</t>
   </si>
 </sst>
 </file>
@@ -215,12 +683,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,8 +709,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,17 +995,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -902,6 +1381,1029 @@
         <v>57</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82">
         <v>1</v>
       </c>
     </row>
